--- a/ZhiLian/抓取一个职位的详细信息.xlsx
+++ b/ZhiLian/抓取一个职位的详细信息.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>jobNumber</t>
   </si>
@@ -43,6 +43,9 @@
     <t>company_url</t>
   </si>
   <si>
+    <t>bestEmployerType</t>
+  </si>
+  <si>
     <t>positionName</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>positionWorkingExp</t>
   </si>
   <si>
+    <t>positionCityId</t>
+  </si>
+  <si>
     <t>positionWorkCity</t>
   </si>
   <si>
@@ -94,6 +100,18 @@
     <t>salaryReal</t>
   </si>
   <si>
+    <t>subJobType</t>
+  </si>
+  <si>
+    <t>positionStatus</t>
+  </si>
+  <si>
+    <t>positionNumber</t>
+  </si>
+  <si>
+    <t>positionCityDistrict</t>
+  </si>
+  <si>
     <t>CC640181680J40693065605</t>
   </si>
   <si>
@@ -154,6 +172,9 @@
     <t>不限</t>
   </si>
   <si>
+    <t>531</t>
+  </si>
+  <si>
     <t>天津</t>
   </si>
   <si>
@@ -164,6 +185,12 @@
   </si>
   <si>
     <t>6001-8000</t>
+  </si>
+  <si>
+    <t>2040</t>
+  </si>
+  <si>
+    <t>西青区</t>
   </si>
 </sst>
 </file>
@@ -534,13 +561,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AF2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:32">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -619,88 +646,124 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="V2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD2">
+        <v>3</v>
+      </c>
+      <c r="AE2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" t="s">
-        <v>41</v>
-      </c>
-      <c r="S2" t="s">
-        <v>42</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="U2" t="s">
-        <v>44</v>
-      </c>
-      <c r="V2" t="s">
-        <v>45</v>
-      </c>
-      <c r="W2" t="s">
-        <v>46</v>
-      </c>
-      <c r="X2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>49</v>
+      <c r="AF2" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="T2" r:id="rId2"/>
+    <hyperlink ref="U2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
